--- a/plantillas/consulta/Proyectos_Participantes.xlsx
+++ b/plantillas/consulta/Proyectos_Participantes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Visual Studio Code\NodeJS\SIVACC\plantillas\consulta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6229DEF9-0733-4AAF-B5DF-A69190BCD1B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E7215F-42A7-4635-8B1D-6F693E9A7194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>DIRECCIÓN EJECUTIVA DE ORGANIZACIÓN ELECTORAL Y GEOESTADÍSTICA</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>Folio de registro</t>
-  </si>
-  <si>
-    <t>FORMATO 2</t>
   </si>
   <si>
     <t>Nombre del Proyecto Específico</t>
@@ -82,7 +79,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,12 +137,6 @@
       <b/>
       <sz val="14"/>
       <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -205,13 +196,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -230,9 +218,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -242,7 +227,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -557,10 +542,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A2:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H2"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -576,87 +561,75 @@
     <col min="9" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-    </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-    </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-    </row>
-    <row r="5" spans="1:8" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="9" t="s">
-        <v>7</v>
-      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" spans="1:8" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -664,57 +637,47 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="10" t="s">
+      <c r="H8" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="H10" s="10" t="s">
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="H9" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
+    <row r="11" spans="1:8" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="8" t="s">
+      <c r="G11" s="7" t="s">
         <v>8</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A4:H4"/>
     <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A3:H3"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
